--- a/assets/Template-Hadiah.xlsx
+++ b/assets/Template-Hadiah.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Data Master" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -29,13 +30,61 @@
   </si>
   <si>
     <t>jacket</t>
+  </si>
+  <si>
+    <t>Kode Hadiah</t>
+  </si>
+  <si>
+    <t>Nama Hadiah</t>
+  </si>
+  <si>
+    <t>Saldo Gopay 25.000</t>
+  </si>
+  <si>
+    <t>Belum Beruntung</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Jaket</t>
+  </si>
+  <si>
+    <t>gopay 50rb</t>
+  </si>
+  <si>
+    <t>Saldo Gopay 50.000</t>
+  </si>
+  <si>
+    <t>gopay 100rb</t>
+  </si>
+  <si>
+    <t>Saldo Gopay 100.000</t>
+  </si>
+  <si>
+    <t>handphone</t>
+  </si>
+  <si>
+    <t>Handphone</t>
+  </si>
+  <si>
+    <t>smart tv</t>
+  </si>
+  <si>
+    <t>Smart Tv 40 Inch</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>Sepeda Motor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -47,26 +96,58 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -78,6 +159,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -463,4 +548,102 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="21.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>